--- a/Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/Financials/Yearly/BTI_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628E400B-B59D-4DDB-A329-FF20D53AF809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BTI" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>BTI</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,141 +689,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25761700</v>
+        <v>31945200</v>
       </c>
       <c r="E8" s="3">
-        <v>19424000</v>
+        <v>25517500</v>
       </c>
       <c r="F8" s="3">
-        <v>17255200</v>
+        <v>18429900</v>
       </c>
       <c r="G8" s="3">
-        <v>18396900</v>
+        <v>17091700</v>
       </c>
       <c r="H8" s="3">
-        <v>20094200</v>
+        <v>18222500</v>
       </c>
       <c r="I8" s="3">
-        <v>20002000</v>
+        <v>19903800</v>
       </c>
       <c r="J8" s="3">
+        <v>19812500</v>
+      </c>
+      <c r="K8" s="3">
         <v>20277200</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6627400</v>
+        <v>5934600</v>
       </c>
       <c r="E9" s="3">
-        <v>4915600</v>
+        <v>6564600</v>
       </c>
       <c r="F9" s="3">
-        <v>3993800</v>
+        <v>4869000</v>
       </c>
       <c r="G9" s="3">
-        <v>3989900</v>
+        <v>3956000</v>
       </c>
       <c r="H9" s="3">
-        <v>4270300</v>
+        <v>3952100</v>
       </c>
       <c r="I9" s="3">
-        <v>4361200</v>
+        <v>4229900</v>
       </c>
       <c r="J9" s="3">
+        <v>4319900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4511300</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19134300</v>
+        <v>26010600</v>
       </c>
       <c r="E10" s="3">
-        <v>14508400</v>
+        <v>18952900</v>
       </c>
       <c r="F10" s="3">
-        <v>13261400</v>
+        <v>13560900</v>
       </c>
       <c r="G10" s="3">
-        <v>14407000</v>
+        <v>13135700</v>
       </c>
       <c r="H10" s="3">
-        <v>15823900</v>
+        <v>14270500</v>
       </c>
       <c r="I10" s="3">
-        <v>15640800</v>
+        <v>15673900</v>
       </c>
       <c r="J10" s="3">
+        <v>15492600</v>
+      </c>
+      <c r="K10" s="3">
         <v>15765900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,35 +847,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>105300</v>
+        <v>137000</v>
       </c>
       <c r="E12" s="3">
-        <v>69800</v>
+        <v>104300</v>
       </c>
       <c r="F12" s="3">
-        <v>79000</v>
+        <v>69100</v>
       </c>
       <c r="G12" s="3">
-        <v>97400</v>
+        <v>78300</v>
       </c>
       <c r="H12" s="3">
-        <v>119800</v>
-      </c>
-      <c r="I12" s="3" t="s">
+        <v>96500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>118700</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>106700</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,63 +904,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-29673900</v>
+        <v>418700</v>
       </c>
       <c r="E14" s="3">
-        <v>794000</v>
+        <v>-29392600</v>
       </c>
       <c r="F14" s="3">
-        <v>480600</v>
+        <v>918200</v>
       </c>
       <c r="G14" s="3">
-        <v>1087700</v>
+        <v>611700</v>
       </c>
       <c r="H14" s="3">
-        <v>354200</v>
+        <v>1077400</v>
       </c>
       <c r="I14" s="3">
-        <v>47400</v>
+        <v>350900</v>
       </c>
       <c r="J14" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K14" s="3">
         <v>686000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1075800</v>
+        <v>1291300</v>
       </c>
       <c r="E15" s="3">
-        <v>715000</v>
+        <v>1065600</v>
       </c>
       <c r="F15" s="3">
-        <v>532000</v>
+        <v>1415200</v>
       </c>
       <c r="G15" s="3">
-        <v>633400</v>
+        <v>526900</v>
       </c>
       <c r="H15" s="3">
-        <v>583300</v>
+        <v>627400</v>
       </c>
       <c r="I15" s="3">
-        <v>778200</v>
+        <v>577800</v>
       </c>
       <c r="J15" s="3">
+        <v>770800</v>
+      </c>
+      <c r="K15" s="3">
         <v>679500</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,62 +978,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17318400</v>
+        <v>19739400</v>
       </c>
       <c r="E17" s="3">
-        <v>13294300</v>
+        <v>-13020900</v>
       </c>
       <c r="F17" s="3">
-        <v>11254600</v>
+        <v>12490100</v>
       </c>
       <c r="G17" s="3">
-        <v>12405500</v>
+        <v>11283600</v>
       </c>
       <c r="H17" s="3">
-        <v>12817600</v>
+        <v>12287900</v>
       </c>
       <c r="I17" s="3">
-        <v>12928200</v>
+        <v>12696200</v>
       </c>
       <c r="J17" s="3">
+        <v>12805700</v>
+      </c>
+      <c r="K17" s="3">
         <v>14060700</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8443300</v>
+        <v>12205700</v>
       </c>
       <c r="E18" s="3">
-        <v>6129700</v>
+        <v>38538400</v>
       </c>
       <c r="F18" s="3">
-        <v>6000600</v>
+        <v>5939800</v>
       </c>
       <c r="G18" s="3">
-        <v>5991400</v>
+        <v>5808100</v>
       </c>
       <c r="H18" s="3">
-        <v>7276600</v>
+        <v>5934600</v>
       </c>
       <c r="I18" s="3">
-        <v>7073800</v>
+        <v>7207600</v>
       </c>
       <c r="J18" s="3">
+        <v>7006800</v>
+      </c>
+      <c r="K18" s="3">
         <v>6216600</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,143 +1052,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>31917700</v>
+        <v>817800</v>
       </c>
       <c r="E20" s="3">
-        <v>2975900</v>
+        <v>1440000</v>
       </c>
       <c r="F20" s="3">
-        <v>2474200</v>
+        <v>3079500</v>
       </c>
       <c r="G20" s="3">
-        <v>1166700</v>
+        <v>2586400</v>
       </c>
       <c r="H20" s="3">
-        <v>1168000</v>
+        <v>1155600</v>
       </c>
       <c r="I20" s="3">
-        <v>1817200</v>
+        <v>1156900</v>
       </c>
       <c r="J20" s="3">
+        <v>1799900</v>
+      </c>
+      <c r="K20" s="3">
         <v>1023100</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>41432800</v>
+        <v>14329200</v>
       </c>
       <c r="E21" s="3">
-        <v>9901900</v>
+        <v>41055900</v>
       </c>
       <c r="F21" s="3">
-        <v>9036400</v>
+        <v>9819900</v>
       </c>
       <c r="G21" s="3">
-        <v>7844200</v>
+        <v>8959000</v>
       </c>
       <c r="H21" s="3">
-        <v>9070400</v>
+        <v>7780000</v>
       </c>
       <c r="I21" s="3">
-        <v>9514100</v>
+        <v>8993700</v>
       </c>
       <c r="J21" s="3">
+        <v>9433200</v>
+      </c>
+      <c r="K21" s="3">
         <v>8311500</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1480100</v>
+        <v>2131200</v>
       </c>
       <c r="E22" s="3">
-        <v>882200</v>
+        <v>1466000</v>
       </c>
       <c r="F22" s="3">
-        <v>765100</v>
+        <v>873900</v>
       </c>
       <c r="G22" s="3">
-        <v>774300</v>
+        <v>757800</v>
       </c>
       <c r="H22" s="3">
-        <v>808500</v>
+        <v>766900</v>
       </c>
       <c r="I22" s="3">
-        <v>1527500</v>
+        <v>800800</v>
       </c>
       <c r="J22" s="3">
+        <v>1513000</v>
+      </c>
+      <c r="K22" s="3">
         <v>746600</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>38880900</v>
+        <v>10892300</v>
       </c>
       <c r="E23" s="3">
-        <v>8223400</v>
+        <v>38512400</v>
       </c>
       <c r="F23" s="3">
-        <v>7709800</v>
+        <v>8145400</v>
       </c>
       <c r="G23" s="3">
-        <v>6383800</v>
+        <v>7636700</v>
       </c>
       <c r="H23" s="3">
-        <v>7636100</v>
+        <v>6323300</v>
       </c>
       <c r="I23" s="3">
-        <v>7363500</v>
+        <v>7563700</v>
       </c>
       <c r="J23" s="3">
+        <v>7293700</v>
+      </c>
+      <c r="K23" s="3">
         <v>6493100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1918600</v>
+        <v>2883800</v>
       </c>
       <c r="E24" s="3">
-        <v>1851400</v>
+        <v>1900400</v>
       </c>
       <c r="F24" s="3">
-        <v>1755300</v>
+        <v>1833900</v>
       </c>
       <c r="G24" s="3">
-        <v>1915900</v>
+        <v>1738600</v>
       </c>
       <c r="H24" s="3">
-        <v>2106900</v>
+        <v>1897800</v>
       </c>
       <c r="I24" s="3">
-        <v>1996300</v>
+        <v>2086900</v>
       </c>
       <c r="J24" s="3">
+        <v>1977300</v>
+      </c>
+      <c r="K24" s="3">
         <v>2048900</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1229,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>36962300</v>
+        <v>8008500</v>
       </c>
       <c r="E26" s="3">
-        <v>6371900</v>
+        <v>36612000</v>
       </c>
       <c r="F26" s="3">
-        <v>5954500</v>
+        <v>6311600</v>
       </c>
       <c r="G26" s="3">
-        <v>4467900</v>
+        <v>5898100</v>
       </c>
       <c r="H26" s="3">
-        <v>5529200</v>
+        <v>4425500</v>
       </c>
       <c r="I26" s="3">
-        <v>5367200</v>
+        <v>5476800</v>
       </c>
       <c r="J26" s="3">
+        <v>5316400</v>
+      </c>
+      <c r="K26" s="3">
         <v>4444200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>36737100</v>
+        <v>7776300</v>
       </c>
       <c r="E27" s="3">
-        <v>6120400</v>
+        <v>36388900</v>
       </c>
       <c r="F27" s="3">
-        <v>5649000</v>
+        <v>6062400</v>
       </c>
       <c r="G27" s="3">
-        <v>4101800</v>
+        <v>5595500</v>
       </c>
       <c r="H27" s="3">
-        <v>5140700</v>
+        <v>4062900</v>
       </c>
       <c r="I27" s="3">
-        <v>4999900</v>
+        <v>5092000</v>
       </c>
       <c r="J27" s="3">
+        <v>4952500</v>
+      </c>
+      <c r="K27" s="3">
         <v>4075500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,20 +1319,23 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>12622700</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>91300</v>
+      </c>
+      <c r="E29" s="3">
+        <v>12503100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1254,9 +1349,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1379,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,63 +1409,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-31917700</v>
+        <v>-817800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2975900</v>
+        <v>-1440000</v>
       </c>
       <c r="F32" s="3">
-        <v>-2474200</v>
+        <v>-3079500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1166700</v>
+        <v>-2586400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1168000</v>
+        <v>-1155600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1817200</v>
+        <v>-1156900</v>
       </c>
       <c r="J32" s="3">
+        <v>-1799900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1023100</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>49359900</v>
+        <v>7867600</v>
       </c>
       <c r="E33" s="3">
-        <v>6120400</v>
+        <v>48892100</v>
       </c>
       <c r="F33" s="3">
-        <v>5649000</v>
+        <v>6062400</v>
       </c>
       <c r="G33" s="3">
-        <v>4101800</v>
+        <v>5595500</v>
       </c>
       <c r="H33" s="3">
-        <v>5140700</v>
+        <v>4062900</v>
       </c>
       <c r="I33" s="3">
-        <v>4999900</v>
+        <v>5092000</v>
       </c>
       <c r="J33" s="3">
+        <v>4952500</v>
+      </c>
+      <c r="K33" s="3">
         <v>4075500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1499,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>49359900</v>
+        <v>7867600</v>
       </c>
       <c r="E35" s="3">
-        <v>6120400</v>
+        <v>48892100</v>
       </c>
       <c r="F35" s="3">
-        <v>5649000</v>
+        <v>6062400</v>
       </c>
       <c r="G35" s="3">
-        <v>4101800</v>
+        <v>5595500</v>
       </c>
       <c r="H35" s="3">
-        <v>5140700</v>
+        <v>4062900</v>
       </c>
       <c r="I35" s="3">
-        <v>4999900</v>
+        <v>5092000</v>
       </c>
       <c r="J35" s="3">
+        <v>4952500</v>
+      </c>
+      <c r="K35" s="3">
         <v>4075500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1581,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,251 +1595,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8667100</v>
+        <v>3393800</v>
       </c>
       <c r="E41" s="3">
-        <v>2902200</v>
+        <v>8585000</v>
       </c>
       <c r="F41" s="3">
-        <v>2584900</v>
+        <v>2874700</v>
       </c>
       <c r="G41" s="3">
-        <v>2393900</v>
+        <v>2560400</v>
       </c>
       <c r="H41" s="3">
-        <v>2773200</v>
+        <v>2371200</v>
       </c>
       <c r="I41" s="3">
-        <v>1286500</v>
+        <v>2746900</v>
       </c>
       <c r="J41" s="3">
+        <v>1274300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1277300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>85600</v>
+        <v>232200</v>
       </c>
       <c r="E42" s="3">
-        <v>19800</v>
+        <v>84800</v>
       </c>
       <c r="F42" s="3">
-        <v>46100</v>
+        <v>19600</v>
       </c>
       <c r="G42" s="3">
-        <v>65800</v>
+        <v>45700</v>
       </c>
       <c r="H42" s="3">
-        <v>71100</v>
+        <v>65200</v>
       </c>
       <c r="I42" s="3">
-        <v>1488000</v>
+        <v>70400</v>
       </c>
       <c r="J42" s="3">
+        <v>1473900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1686800</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5942700</v>
+        <v>4776400</v>
       </c>
       <c r="E43" s="3">
-        <v>5205300</v>
+        <v>5886400</v>
       </c>
       <c r="F43" s="3">
-        <v>4398100</v>
+        <v>5155900</v>
       </c>
       <c r="G43" s="3">
-        <v>3719900</v>
+        <v>4356400</v>
       </c>
       <c r="H43" s="3">
-        <v>3912200</v>
+        <v>3684700</v>
       </c>
       <c r="I43" s="3">
-        <v>3718600</v>
+        <v>3875100</v>
       </c>
       <c r="J43" s="3">
+        <v>3683400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3357800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15443300</v>
+        <v>7863700</v>
       </c>
       <c r="E44" s="3">
-        <v>7628200</v>
+        <v>15296900</v>
       </c>
       <c r="F44" s="3">
-        <v>5592400</v>
+        <v>7555900</v>
       </c>
       <c r="G44" s="3">
-        <v>5442300</v>
+        <v>5539400</v>
       </c>
       <c r="H44" s="3">
-        <v>5322500</v>
+        <v>5390700</v>
       </c>
       <c r="I44" s="3">
-        <v>5301400</v>
+        <v>5272000</v>
       </c>
       <c r="J44" s="3">
+        <v>5251200</v>
+      </c>
+      <c r="K44" s="3">
         <v>4606100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>306800</v>
+        <v>240000</v>
       </c>
       <c r="E45" s="3">
-        <v>518800</v>
+        <v>303900</v>
       </c>
       <c r="F45" s="3">
-        <v>301500</v>
+        <v>513900</v>
       </c>
       <c r="G45" s="3">
-        <v>402900</v>
+        <v>298700</v>
       </c>
       <c r="H45" s="3">
-        <v>454300</v>
+        <v>399100</v>
       </c>
       <c r="I45" s="3">
-        <v>301500</v>
+        <v>450000</v>
       </c>
       <c r="J45" s="3">
+        <v>298700</v>
+      </c>
+      <c r="K45" s="3">
         <v>258100</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18390300</v>
+        <v>16506000</v>
       </c>
       <c r="E46" s="3">
-        <v>16274200</v>
+        <v>18216000</v>
       </c>
       <c r="F46" s="3">
-        <v>12923000</v>
+        <v>16120000</v>
       </c>
       <c r="G46" s="3">
-        <v>12024900</v>
+        <v>12800500</v>
       </c>
       <c r="H46" s="3">
-        <v>12533200</v>
+        <v>11911000</v>
       </c>
       <c r="I46" s="3">
-        <v>12096000</v>
+        <v>12414400</v>
       </c>
       <c r="J46" s="3">
+        <v>11981400</v>
+      </c>
+      <c r="K46" s="3">
         <v>11186100</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3127400</v>
+        <v>3209900</v>
       </c>
       <c r="E47" s="3">
-        <v>13364100</v>
+        <v>3097700</v>
       </c>
       <c r="F47" s="3">
-        <v>9511200</v>
+        <v>13237400</v>
       </c>
       <c r="G47" s="3">
-        <v>3409200</v>
+        <v>9421000</v>
       </c>
       <c r="H47" s="3">
-        <v>3299900</v>
+        <v>3376900</v>
       </c>
       <c r="I47" s="3">
-        <v>3411800</v>
+        <v>3268600</v>
       </c>
       <c r="J47" s="3">
+        <v>3379500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3895100</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12857100</v>
+        <v>6738100</v>
       </c>
       <c r="E48" s="3">
-        <v>4820800</v>
+        <v>12735300</v>
       </c>
       <c r="F48" s="3">
-        <v>3978000</v>
+        <v>4775100</v>
       </c>
       <c r="G48" s="3">
-        <v>3955600</v>
+        <v>3940300</v>
       </c>
       <c r="H48" s="3">
-        <v>4155800</v>
+        <v>3918100</v>
       </c>
       <c r="I48" s="3">
-        <v>4215000</v>
+        <v>4116400</v>
       </c>
       <c r="J48" s="3">
+        <v>4175100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4012300</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>310196000</v>
+        <v>161751000</v>
       </c>
       <c r="E49" s="3">
-        <v>15955500</v>
+        <v>307256000</v>
       </c>
       <c r="F49" s="3">
-        <v>13742000</v>
+        <v>15804300</v>
       </c>
       <c r="G49" s="3">
-        <v>14226600</v>
+        <v>13611800</v>
       </c>
       <c r="H49" s="3">
-        <v>14754600</v>
+        <v>14091800</v>
       </c>
       <c r="I49" s="3">
-        <v>15419600</v>
+        <v>14614800</v>
       </c>
       <c r="J49" s="3">
+        <v>15273500</v>
+      </c>
+      <c r="K49" s="3">
         <v>15790900</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1892,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +1922,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2694200</v>
+        <v>2669900</v>
       </c>
       <c r="E52" s="3">
-        <v>1958100</v>
+        <v>2668600</v>
       </c>
       <c r="F52" s="3">
-        <v>1344400</v>
+        <v>1939500</v>
       </c>
       <c r="G52" s="3">
-        <v>840100</v>
+        <v>1331700</v>
       </c>
       <c r="H52" s="3">
-        <v>653100</v>
+        <v>832100</v>
       </c>
       <c r="I52" s="3">
-        <v>841400</v>
+        <v>646900</v>
       </c>
       <c r="J52" s="3">
+        <v>833500</v>
+      </c>
+      <c r="K52" s="3">
         <v>825600</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,36 +1982,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>185739000</v>
+        <v>190875000</v>
       </c>
       <c r="E54" s="3">
-        <v>52372700</v>
+        <v>183978000</v>
       </c>
       <c r="F54" s="3">
-        <v>41498600</v>
+        <v>51876300</v>
       </c>
       <c r="G54" s="3">
-        <v>34456400</v>
+        <v>41105300</v>
       </c>
       <c r="H54" s="3">
-        <v>35396600</v>
+        <v>34129900</v>
       </c>
       <c r="I54" s="3">
-        <v>35983900</v>
+        <v>35061200</v>
       </c>
       <c r="J54" s="3">
+        <v>35642900</v>
+      </c>
+      <c r="K54" s="3">
         <v>35710000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +2029,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,170 +2043,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11730000</v>
+        <v>13866100</v>
       </c>
       <c r="E57" s="3">
-        <v>9658700</v>
+        <v>11618800</v>
       </c>
       <c r="F57" s="3">
-        <v>7817800</v>
+        <v>9567100</v>
       </c>
       <c r="G57" s="3">
-        <v>7273900</v>
+        <v>7743700</v>
       </c>
       <c r="H57" s="3">
-        <v>7559700</v>
+        <v>7205000</v>
       </c>
       <c r="I57" s="3">
-        <v>7672900</v>
+        <v>7488000</v>
       </c>
       <c r="J57" s="3">
+        <v>7600200</v>
+      </c>
+      <c r="K57" s="3">
         <v>6813100</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7141000</v>
+        <v>4897700</v>
       </c>
       <c r="E58" s="3">
-        <v>3959600</v>
+        <v>13566100</v>
       </c>
       <c r="F58" s="3">
-        <v>2890400</v>
+        <v>3922100</v>
       </c>
       <c r="G58" s="3">
-        <v>3264300</v>
+        <v>2863000</v>
       </c>
       <c r="H58" s="3">
-        <v>2607200</v>
+        <v>3233400</v>
       </c>
       <c r="I58" s="3">
-        <v>2154300</v>
+        <v>2582500</v>
       </c>
       <c r="J58" s="3">
+        <v>2133900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2325500</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2203000</v>
+        <v>2534300</v>
       </c>
       <c r="E59" s="3">
-        <v>1993600</v>
+        <v>2762500</v>
       </c>
       <c r="F59" s="3">
-        <v>1150900</v>
+        <v>1974700</v>
       </c>
       <c r="G59" s="3">
-        <v>1008700</v>
+        <v>1140000</v>
       </c>
       <c r="H59" s="3">
-        <v>941500</v>
+        <v>999100</v>
       </c>
       <c r="I59" s="3">
-        <v>894100</v>
+        <v>932600</v>
       </c>
       <c r="J59" s="3">
+        <v>885600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1194300</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20548500</v>
+        <v>21298100</v>
       </c>
       <c r="E60" s="3">
-        <v>15611900</v>
+        <v>20353800</v>
       </c>
       <c r="F60" s="3">
-        <v>11859000</v>
+        <v>15463900</v>
       </c>
       <c r="G60" s="3">
-        <v>11546900</v>
+        <v>11746600</v>
       </c>
       <c r="H60" s="3">
-        <v>11108400</v>
+        <v>11437500</v>
       </c>
       <c r="I60" s="3">
-        <v>10721300</v>
+        <v>11003200</v>
       </c>
       <c r="J60" s="3">
+        <v>10619700</v>
+      </c>
+      <c r="K60" s="3">
         <v>10332900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>57974300</v>
+        <v>56455800</v>
       </c>
       <c r="E61" s="3">
-        <v>21711200</v>
+        <v>57424900</v>
       </c>
       <c r="F61" s="3">
-        <v>19496400</v>
+        <v>21505500</v>
       </c>
       <c r="G61" s="3">
-        <v>12876900</v>
+        <v>19311600</v>
       </c>
       <c r="H61" s="3">
-        <v>12793900</v>
+        <v>12754800</v>
       </c>
       <c r="I61" s="3">
-        <v>11960400</v>
+        <v>12672700</v>
       </c>
       <c r="J61" s="3">
+        <v>11847000</v>
+      </c>
+      <c r="K61" s="3">
         <v>11205900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27382600</v>
+        <v>27444000</v>
       </c>
       <c r="E62" s="3">
-        <v>3980700</v>
+        <v>27123100</v>
       </c>
       <c r="F62" s="3">
-        <v>3517100</v>
+        <v>3942900</v>
       </c>
       <c r="G62" s="3">
-        <v>2376800</v>
+        <v>3483800</v>
       </c>
       <c r="H62" s="3">
-        <v>2362300</v>
+        <v>2354300</v>
       </c>
       <c r="I62" s="3">
-        <v>3058900</v>
+        <v>2339900</v>
       </c>
       <c r="J62" s="3">
+        <v>3029900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3012800</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2250,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2280,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,36 +2310,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>105732000</v>
+        <v>105516000</v>
       </c>
       <c r="E66" s="3">
-        <v>41598700</v>
+        <v>104730000</v>
       </c>
       <c r="F66" s="3">
-        <v>35054300</v>
+        <v>41204500</v>
       </c>
       <c r="G66" s="3">
-        <v>27200900</v>
+        <v>34722000</v>
       </c>
       <c r="H66" s="3">
-        <v>26661000</v>
+        <v>26943100</v>
       </c>
       <c r="I66" s="3">
-        <v>26144900</v>
+        <v>26408400</v>
       </c>
       <c r="J66" s="3">
+        <v>25897100</v>
+      </c>
+      <c r="K66" s="3">
         <v>24955800</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2357,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2384,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2414,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2444,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,36 +2474,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>79083800</v>
+        <v>92466400</v>
       </c>
       <c r="E72" s="3">
-        <v>9998400</v>
+        <v>134054000</v>
       </c>
       <c r="F72" s="3">
-        <v>5674000</v>
+        <v>9903600</v>
       </c>
       <c r="G72" s="3">
-        <v>6490500</v>
+        <v>5620300</v>
       </c>
       <c r="H72" s="3">
-        <v>7975800</v>
+        <v>6428900</v>
       </c>
       <c r="I72" s="3">
-        <v>12801800</v>
+        <v>7900200</v>
       </c>
       <c r="J72" s="3">
+        <v>12680500</v>
+      </c>
+      <c r="K72" s="3">
         <v>12030200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2534,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2564,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2594,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>80006800</v>
+        <v>85359300</v>
       </c>
       <c r="E76" s="3">
-        <v>10774000</v>
+        <v>79248600</v>
       </c>
       <c r="F76" s="3">
-        <v>6444400</v>
+        <v>10671900</v>
       </c>
       <c r="G76" s="3">
-        <v>7255500</v>
+        <v>6383300</v>
       </c>
       <c r="H76" s="3">
-        <v>8735600</v>
+        <v>7186700</v>
       </c>
       <c r="I76" s="3">
-        <v>9839100</v>
+        <v>8652800</v>
       </c>
       <c r="J76" s="3">
+        <v>9745800</v>
+      </c>
+      <c r="K76" s="3">
         <v>10754200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2654,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>49359900</v>
+        <v>7867600</v>
       </c>
       <c r="E81" s="3">
-        <v>6120400</v>
+        <v>48892100</v>
       </c>
       <c r="F81" s="3">
-        <v>5649000</v>
+        <v>6062400</v>
       </c>
       <c r="G81" s="3">
-        <v>4101800</v>
+        <v>5595500</v>
       </c>
       <c r="H81" s="3">
-        <v>5140700</v>
+        <v>4062900</v>
       </c>
       <c r="I81" s="3">
-        <v>4999900</v>
+        <v>5092000</v>
       </c>
       <c r="J81" s="3">
+        <v>4952500</v>
+      </c>
+      <c r="K81" s="3">
         <v>4075500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2736,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1291300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1065600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>791700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>558200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>682200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>622200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>619500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1075800</v>
       </c>
-      <c r="E83" s="3">
-        <v>799300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>563600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>688700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>628100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>625500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1075800</v>
-      </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2793,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2823,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2853,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2883,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,36 +2913,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7040900</v>
+        <v>13427900</v>
       </c>
       <c r="E89" s="3">
-        <v>6070400</v>
+        <v>6974100</v>
       </c>
       <c r="F89" s="3">
-        <v>6215200</v>
+        <v>6012900</v>
       </c>
       <c r="G89" s="3">
-        <v>4893200</v>
+        <v>6156300</v>
       </c>
       <c r="H89" s="3">
-        <v>5841300</v>
+        <v>4846800</v>
       </c>
       <c r="I89" s="3">
-        <v>5829400</v>
+        <v>5785900</v>
       </c>
       <c r="J89" s="3">
+        <v>5774200</v>
+      </c>
+      <c r="K89" s="3">
         <v>6012500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +2960,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1287800</v>
+        <v>-988700</v>
       </c>
       <c r="E91" s="3">
-        <v>-887500</v>
+        <v>-1031700</v>
       </c>
       <c r="F91" s="3">
-        <v>-791400</v>
+        <v>-764300</v>
       </c>
       <c r="G91" s="3">
-        <v>-911200</v>
+        <v>-630000</v>
       </c>
       <c r="H91" s="3">
-        <v>-949400</v>
+        <v>-690000</v>
       </c>
       <c r="I91" s="3">
-        <v>-874300</v>
+        <v>-748700</v>
       </c>
       <c r="J91" s="3">
+        <v>-866100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-671600</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +3017,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,36 +3047,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24418600</v>
+        <v>-1331700</v>
       </c>
       <c r="E94" s="3">
-        <v>-842700</v>
+        <v>-24187100</v>
       </c>
       <c r="F94" s="3">
-        <v>-5255300</v>
+        <v>-834800</v>
       </c>
       <c r="G94" s="3">
-        <v>-618900</v>
+        <v>-5205500</v>
       </c>
       <c r="H94" s="3">
-        <v>-441100</v>
+        <v>-613000</v>
       </c>
       <c r="I94" s="3">
-        <v>-526700</v>
+        <v>-436900</v>
       </c>
       <c r="J94" s="3">
+        <v>-521700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-937600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,35 +3094,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4562700</v>
+        <v>-5669800</v>
       </c>
       <c r="E96" s="3">
-        <v>-3831900</v>
+        <v>-4519400</v>
       </c>
       <c r="F96" s="3">
-        <v>-3647500</v>
+        <v>-3795500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3571100</v>
+        <v>-3612900</v>
       </c>
       <c r="H96" s="3">
-        <v>-3438100</v>
+        <v>-3537300</v>
       </c>
       <c r="I96" s="3">
-        <v>-3342000</v>
+        <v>-3405600</v>
       </c>
       <c r="J96" s="3">
+        <v>-3310300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3105000</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3151,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3181,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,88 +3211,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>19434500</v>
+        <v>-12560500</v>
       </c>
       <c r="E100" s="3">
-        <v>-5568700</v>
+        <v>19250300</v>
       </c>
       <c r="F100" s="3">
-        <v>-288400</v>
+        <v>-5515900</v>
       </c>
       <c r="G100" s="3">
-        <v>-4565300</v>
+        <v>-285600</v>
       </c>
       <c r="H100" s="3">
-        <v>-5223700</v>
+        <v>-4522000</v>
       </c>
       <c r="I100" s="3">
-        <v>-5206600</v>
+        <v>-5174200</v>
       </c>
       <c r="J100" s="3">
+        <v>-5157200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5329000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-514900</v>
+        <v>-180000</v>
       </c>
       <c r="E101" s="3">
-        <v>237000</v>
+        <v>-510000</v>
       </c>
       <c r="F101" s="3">
-        <v>-358200</v>
+        <v>234800</v>
       </c>
       <c r="G101" s="3">
-        <v>-83000</v>
+        <v>-354800</v>
       </c>
       <c r="H101" s="3">
-        <v>-259400</v>
+        <v>-82200</v>
       </c>
       <c r="I101" s="3">
-        <v>-231800</v>
+        <v>-256900</v>
       </c>
       <c r="J101" s="3">
+        <v>-229600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-63200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1542000</v>
+        <v>-644300</v>
       </c>
       <c r="E102" s="3">
-        <v>-104000</v>
+        <v>1527300</v>
       </c>
       <c r="F102" s="3">
-        <v>313400</v>
+        <v>-103000</v>
       </c>
       <c r="G102" s="3">
-        <v>-374000</v>
+        <v>310400</v>
       </c>
       <c r="H102" s="3">
-        <v>-83000</v>
+        <v>-370400</v>
       </c>
       <c r="I102" s="3">
-        <v>-135600</v>
+        <v>-82200</v>
       </c>
       <c r="J102" s="3">
+        <v>-134300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-317300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/Financials/Yearly/BTI_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628E400B-B59D-4DDB-A329-FF20D53AF809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BTI" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,33 +654,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,97 +710,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31945200</v>
+        <v>31663500</v>
       </c>
       <c r="E8" s="3">
-        <v>25517500</v>
+        <v>25292500</v>
       </c>
       <c r="F8" s="3">
-        <v>18429900</v>
+        <v>18267400</v>
       </c>
       <c r="G8" s="3">
-        <v>17091700</v>
+        <v>16941000</v>
       </c>
       <c r="H8" s="3">
-        <v>18222500</v>
+        <v>18061800</v>
       </c>
       <c r="I8" s="3">
-        <v>19903800</v>
+        <v>19728300</v>
       </c>
       <c r="J8" s="3">
-        <v>19812500</v>
+        <v>19637800</v>
       </c>
       <c r="K8" s="3">
         <v>20277200</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5934600</v>
+        <v>5882300</v>
       </c>
       <c r="E9" s="3">
-        <v>6564600</v>
+        <v>6506700</v>
       </c>
       <c r="F9" s="3">
-        <v>4869000</v>
+        <v>4826100</v>
       </c>
       <c r="G9" s="3">
-        <v>3956000</v>
+        <v>3921100</v>
       </c>
       <c r="H9" s="3">
-        <v>3952100</v>
+        <v>3917200</v>
       </c>
       <c r="I9" s="3">
-        <v>4229900</v>
+        <v>4192600</v>
       </c>
       <c r="J9" s="3">
-        <v>4319900</v>
+        <v>4281800</v>
       </c>
       <c r="K9" s="3">
         <v>4511300</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26010600</v>
+        <v>25781200</v>
       </c>
       <c r="E10" s="3">
-        <v>18952900</v>
+        <v>18785800</v>
       </c>
       <c r="F10" s="3">
-        <v>13560900</v>
+        <v>13441300</v>
       </c>
       <c r="G10" s="3">
-        <v>13135700</v>
+        <v>13019900</v>
       </c>
       <c r="H10" s="3">
-        <v>14270500</v>
+        <v>14144600</v>
       </c>
       <c r="I10" s="3">
-        <v>15673900</v>
+        <v>15535700</v>
       </c>
       <c r="J10" s="3">
-        <v>15492600</v>
+        <v>15356000</v>
       </c>
       <c r="K10" s="3">
         <v>15765900</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,27 +814,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>137000</v>
+        <v>135700</v>
       </c>
       <c r="E12" s="3">
-        <v>104300</v>
+        <v>103400</v>
       </c>
       <c r="F12" s="3">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="G12" s="3">
-        <v>78300</v>
+        <v>77600</v>
       </c>
       <c r="H12" s="3">
-        <v>96500</v>
+        <v>95700</v>
       </c>
       <c r="I12" s="3">
-        <v>118700</v>
+        <v>117600</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -879,7 +844,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,67 +874,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>418700</v>
+        <v>415000</v>
       </c>
       <c r="E14" s="3">
-        <v>-29392600</v>
+        <v>-29133500</v>
       </c>
       <c r="F14" s="3">
-        <v>918200</v>
+        <v>910100</v>
       </c>
       <c r="G14" s="3">
-        <v>611700</v>
+        <v>606300</v>
       </c>
       <c r="H14" s="3">
-        <v>1077400</v>
+        <v>1067900</v>
       </c>
       <c r="I14" s="3">
-        <v>350900</v>
+        <v>347800</v>
       </c>
       <c r="J14" s="3">
-        <v>47000</v>
+        <v>46500</v>
       </c>
       <c r="K14" s="3">
         <v>686000</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1291300</v>
+        <v>1279900</v>
       </c>
       <c r="E15" s="3">
-        <v>1065600</v>
+        <v>1056200</v>
       </c>
       <c r="F15" s="3">
-        <v>1415200</v>
+        <v>1402700</v>
       </c>
       <c r="G15" s="3">
-        <v>526900</v>
+        <v>522300</v>
       </c>
       <c r="H15" s="3">
-        <v>627400</v>
+        <v>621800</v>
       </c>
       <c r="I15" s="3">
-        <v>577800</v>
+        <v>572700</v>
       </c>
       <c r="J15" s="3">
-        <v>770800</v>
+        <v>764100</v>
       </c>
       <c r="K15" s="3">
         <v>679500</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -980,67 +945,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19739400</v>
+        <v>19565400</v>
       </c>
       <c r="E17" s="3">
-        <v>-13020900</v>
+        <v>-12906100</v>
       </c>
       <c r="F17" s="3">
-        <v>12490100</v>
+        <v>12379900</v>
       </c>
       <c r="G17" s="3">
-        <v>11283600</v>
+        <v>11184100</v>
       </c>
       <c r="H17" s="3">
-        <v>12287900</v>
+        <v>12179600</v>
       </c>
       <c r="I17" s="3">
-        <v>12696200</v>
+        <v>12584200</v>
       </c>
       <c r="J17" s="3">
-        <v>12805700</v>
+        <v>12692800</v>
       </c>
       <c r="K17" s="3">
         <v>14060700</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12205700</v>
+        <v>12098100</v>
       </c>
       <c r="E18" s="3">
-        <v>38538400</v>
+        <v>38198700</v>
       </c>
       <c r="F18" s="3">
-        <v>5939800</v>
+        <v>5887500</v>
       </c>
       <c r="G18" s="3">
-        <v>5808100</v>
+        <v>5756900</v>
       </c>
       <c r="H18" s="3">
-        <v>5934600</v>
+        <v>5882300</v>
       </c>
       <c r="I18" s="3">
-        <v>7207600</v>
+        <v>7144100</v>
       </c>
       <c r="J18" s="3">
-        <v>7006800</v>
+        <v>6945000</v>
       </c>
       <c r="K18" s="3">
         <v>6216600</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,157 +1019,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>817800</v>
+        <v>757600</v>
       </c>
       <c r="E20" s="3">
-        <v>1440000</v>
+        <v>1371700</v>
       </c>
       <c r="F20" s="3">
-        <v>3079500</v>
+        <v>3020000</v>
       </c>
       <c r="G20" s="3">
-        <v>2586400</v>
+        <v>2563600</v>
       </c>
       <c r="H20" s="3">
-        <v>1155600</v>
+        <v>1145400</v>
       </c>
       <c r="I20" s="3">
-        <v>1156900</v>
+        <v>1146700</v>
       </c>
       <c r="J20" s="3">
-        <v>1799900</v>
+        <v>1782800</v>
       </c>
       <c r="K20" s="3">
         <v>1023100</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14329200</v>
+        <v>14142700</v>
       </c>
       <c r="E21" s="3">
-        <v>41055900</v>
+        <v>40632400</v>
       </c>
       <c r="F21" s="3">
-        <v>9819900</v>
+        <v>9696600</v>
       </c>
       <c r="G21" s="3">
-        <v>8959000</v>
+        <v>8876900</v>
       </c>
       <c r="H21" s="3">
-        <v>7780000</v>
+        <v>7707600</v>
       </c>
       <c r="I21" s="3">
-        <v>8993700</v>
+        <v>8910900</v>
       </c>
       <c r="J21" s="3">
-        <v>9433200</v>
+        <v>9345300</v>
       </c>
       <c r="K21" s="3">
         <v>8311500</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2131200</v>
+        <v>2059400</v>
       </c>
       <c r="E22" s="3">
-        <v>1466000</v>
+        <v>1397500</v>
       </c>
       <c r="F22" s="3">
-        <v>873900</v>
+        <v>833900</v>
       </c>
       <c r="G22" s="3">
-        <v>757800</v>
+        <v>751100</v>
       </c>
       <c r="H22" s="3">
-        <v>766900</v>
+        <v>760200</v>
       </c>
       <c r="I22" s="3">
-        <v>800800</v>
+        <v>793800</v>
       </c>
       <c r="J22" s="3">
-        <v>1513000</v>
+        <v>1498400</v>
       </c>
       <c r="K22" s="3">
         <v>746600</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10892300</v>
+        <v>10796300</v>
       </c>
       <c r="E23" s="3">
-        <v>38512400</v>
+        <v>38172800</v>
       </c>
       <c r="F23" s="3">
-        <v>8145400</v>
+        <v>8073600</v>
       </c>
       <c r="G23" s="3">
-        <v>7636700</v>
+        <v>7569400</v>
       </c>
       <c r="H23" s="3">
-        <v>6323300</v>
+        <v>6267500</v>
       </c>
       <c r="I23" s="3">
-        <v>7563700</v>
+        <v>7497000</v>
       </c>
       <c r="J23" s="3">
-        <v>7293700</v>
+        <v>7229400</v>
       </c>
       <c r="K23" s="3">
         <v>6493100</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2883800</v>
+        <v>2858400</v>
       </c>
       <c r="E24" s="3">
-        <v>1900400</v>
+        <v>1883600</v>
       </c>
       <c r="F24" s="3">
-        <v>1833900</v>
+        <v>1817700</v>
       </c>
       <c r="G24" s="3">
-        <v>1738600</v>
+        <v>1723300</v>
       </c>
       <c r="H24" s="3">
-        <v>1897800</v>
+        <v>1881000</v>
       </c>
       <c r="I24" s="3">
-        <v>2086900</v>
+        <v>2068500</v>
       </c>
       <c r="J24" s="3">
-        <v>1977300</v>
+        <v>1959900</v>
       </c>
       <c r="K24" s="3">
         <v>2048900</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,67 +1199,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8008500</v>
+        <v>7937900</v>
       </c>
       <c r="E26" s="3">
-        <v>36612000</v>
+        <v>36289200</v>
       </c>
       <c r="F26" s="3">
-        <v>6311600</v>
+        <v>6255900</v>
       </c>
       <c r="G26" s="3">
-        <v>5898100</v>
+        <v>5846100</v>
       </c>
       <c r="H26" s="3">
-        <v>4425500</v>
+        <v>4386500</v>
       </c>
       <c r="I26" s="3">
-        <v>5476800</v>
+        <v>5428500</v>
       </c>
       <c r="J26" s="3">
-        <v>5316400</v>
+        <v>5269500</v>
       </c>
       <c r="K26" s="3">
         <v>4444200</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7776300</v>
+        <v>7707700</v>
       </c>
       <c r="E27" s="3">
-        <v>36388900</v>
+        <v>36068100</v>
       </c>
       <c r="F27" s="3">
-        <v>6062400</v>
+        <v>6009000</v>
       </c>
       <c r="G27" s="3">
-        <v>5595500</v>
+        <v>5546200</v>
       </c>
       <c r="H27" s="3">
-        <v>4062900</v>
+        <v>4027100</v>
       </c>
       <c r="I27" s="3">
-        <v>5092000</v>
+        <v>5047100</v>
       </c>
       <c r="J27" s="3">
-        <v>4952500</v>
+        <v>4908800</v>
       </c>
       <c r="K27" s="3">
         <v>4075500</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1324,15 +1289,15 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>91300</v>
+        <v>90500</v>
       </c>
       <c r="E29" s="3">
-        <v>12503100</v>
+        <v>12392900</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1354,7 +1319,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1349,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1414,67 +1379,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-817800</v>
+        <v>-757600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1440000</v>
+        <v>-1371700</v>
       </c>
       <c r="F32" s="3">
-        <v>-3079500</v>
+        <v>-3020000</v>
       </c>
       <c r="G32" s="3">
-        <v>-2586400</v>
+        <v>-2563600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1155600</v>
+        <v>-1145400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1156900</v>
+        <v>-1146700</v>
       </c>
       <c r="J32" s="3">
-        <v>-1799900</v>
+        <v>-1782800</v>
       </c>
       <c r="K32" s="3">
         <v>-1023100</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7867600</v>
+        <v>7798200</v>
       </c>
       <c r="E33" s="3">
-        <v>48892100</v>
+        <v>48461000</v>
       </c>
       <c r="F33" s="3">
-        <v>6062400</v>
+        <v>6009000</v>
       </c>
       <c r="G33" s="3">
-        <v>5595500</v>
+        <v>5546200</v>
       </c>
       <c r="H33" s="3">
-        <v>4062900</v>
+        <v>4027100</v>
       </c>
       <c r="I33" s="3">
-        <v>5092000</v>
+        <v>5047100</v>
       </c>
       <c r="J33" s="3">
-        <v>4952500</v>
+        <v>4908800</v>
       </c>
       <c r="K33" s="3">
         <v>4075500</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1504,42 +1469,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7867600</v>
+        <v>7798200</v>
       </c>
       <c r="E35" s="3">
-        <v>48892100</v>
+        <v>48461000</v>
       </c>
       <c r="F35" s="3">
-        <v>6062400</v>
+        <v>6009000</v>
       </c>
       <c r="G35" s="3">
-        <v>5595500</v>
+        <v>5546200</v>
       </c>
       <c r="H35" s="3">
-        <v>4062900</v>
+        <v>4027100</v>
       </c>
       <c r="I35" s="3">
-        <v>5092000</v>
+        <v>5047100</v>
       </c>
       <c r="J35" s="3">
-        <v>4952500</v>
+        <v>4908800</v>
       </c>
       <c r="K35" s="3">
         <v>4075500</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1534,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1583,7 +1548,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1597,277 +1562,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3393800</v>
+        <v>3363900</v>
       </c>
       <c r="E41" s="3">
-        <v>8585000</v>
+        <v>8509300</v>
       </c>
       <c r="F41" s="3">
-        <v>2874700</v>
+        <v>2849400</v>
       </c>
       <c r="G41" s="3">
-        <v>2560400</v>
+        <v>2537800</v>
       </c>
       <c r="H41" s="3">
-        <v>2371200</v>
+        <v>2350300</v>
       </c>
       <c r="I41" s="3">
-        <v>2746900</v>
+        <v>2722700</v>
       </c>
       <c r="J41" s="3">
-        <v>1274300</v>
+        <v>1263100</v>
       </c>
       <c r="K41" s="3">
         <v>1277300</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>232200</v>
+        <v>230100</v>
       </c>
       <c r="E42" s="3">
-        <v>84800</v>
+        <v>84000</v>
       </c>
       <c r="F42" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="G42" s="3">
-        <v>45700</v>
+        <v>45200</v>
       </c>
       <c r="H42" s="3">
-        <v>65200</v>
+        <v>64600</v>
       </c>
       <c r="I42" s="3">
-        <v>70400</v>
+        <v>69800</v>
       </c>
       <c r="J42" s="3">
-        <v>1473900</v>
+        <v>1460900</v>
       </c>
       <c r="K42" s="3">
         <v>1686800</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4776400</v>
+        <v>4734300</v>
       </c>
       <c r="E43" s="3">
-        <v>5886400</v>
+        <v>5834500</v>
       </c>
       <c r="F43" s="3">
-        <v>5155900</v>
+        <v>5110500</v>
       </c>
       <c r="G43" s="3">
-        <v>4356400</v>
+        <v>4318000</v>
       </c>
       <c r="H43" s="3">
-        <v>3684700</v>
+        <v>3652200</v>
       </c>
       <c r="I43" s="3">
-        <v>3875100</v>
+        <v>3840900</v>
       </c>
       <c r="J43" s="3">
-        <v>3683400</v>
+        <v>3650900</v>
       </c>
       <c r="K43" s="3">
         <v>3357800</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7863700</v>
+        <v>7794400</v>
       </c>
       <c r="E44" s="3">
-        <v>15296900</v>
+        <v>15162100</v>
       </c>
       <c r="F44" s="3">
-        <v>7555900</v>
+        <v>7489200</v>
       </c>
       <c r="G44" s="3">
-        <v>5539400</v>
+        <v>5490600</v>
       </c>
       <c r="H44" s="3">
-        <v>5390700</v>
+        <v>5343200</v>
       </c>
       <c r="I44" s="3">
-        <v>5272000</v>
+        <v>5225500</v>
       </c>
       <c r="J44" s="3">
-        <v>5251200</v>
+        <v>5204900</v>
       </c>
       <c r="K44" s="3">
         <v>4606100</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>240000</v>
+        <v>237900</v>
       </c>
       <c r="E45" s="3">
-        <v>303900</v>
+        <v>301200</v>
       </c>
       <c r="F45" s="3">
-        <v>513900</v>
+        <v>509400</v>
       </c>
       <c r="G45" s="3">
-        <v>298700</v>
+        <v>296100</v>
       </c>
       <c r="H45" s="3">
-        <v>399100</v>
+        <v>395600</v>
       </c>
       <c r="I45" s="3">
-        <v>450000</v>
+        <v>446000</v>
       </c>
       <c r="J45" s="3">
-        <v>298700</v>
+        <v>296100</v>
       </c>
       <c r="K45" s="3">
         <v>258100</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16506000</v>
+        <v>16360500</v>
       </c>
       <c r="E46" s="3">
-        <v>18216000</v>
+        <v>18055400</v>
       </c>
       <c r="F46" s="3">
-        <v>16120000</v>
+        <v>15977800</v>
       </c>
       <c r="G46" s="3">
-        <v>12800500</v>
+        <v>12687600</v>
       </c>
       <c r="H46" s="3">
-        <v>11911000</v>
+        <v>11805900</v>
       </c>
       <c r="I46" s="3">
-        <v>12414400</v>
+        <v>12305000</v>
       </c>
       <c r="J46" s="3">
-        <v>11981400</v>
+        <v>11875800</v>
       </c>
       <c r="K46" s="3">
         <v>11186100</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3209900</v>
+        <v>3181600</v>
       </c>
       <c r="E47" s="3">
-        <v>3097700</v>
+        <v>3070400</v>
       </c>
       <c r="F47" s="3">
-        <v>13237400</v>
+        <v>13120700</v>
       </c>
       <c r="G47" s="3">
-        <v>9421000</v>
+        <v>9338000</v>
       </c>
       <c r="H47" s="3">
-        <v>3376900</v>
+        <v>3347100</v>
       </c>
       <c r="I47" s="3">
-        <v>3268600</v>
+        <v>3239800</v>
       </c>
       <c r="J47" s="3">
-        <v>3379500</v>
+        <v>3349700</v>
       </c>
       <c r="K47" s="3">
         <v>3895100</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6738100</v>
+        <v>6678700</v>
       </c>
       <c r="E48" s="3">
-        <v>12735300</v>
+        <v>12623000</v>
       </c>
       <c r="F48" s="3">
-        <v>4775100</v>
+        <v>4733000</v>
       </c>
       <c r="G48" s="3">
-        <v>3940300</v>
+        <v>3905600</v>
       </c>
       <c r="H48" s="3">
-        <v>3918100</v>
+        <v>3883600</v>
       </c>
       <c r="I48" s="3">
-        <v>4116400</v>
+        <v>4080100</v>
       </c>
       <c r="J48" s="3">
-        <v>4175100</v>
+        <v>4138300</v>
       </c>
       <c r="K48" s="3">
         <v>4012300</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>161751000</v>
+        <v>160325000</v>
       </c>
       <c r="E49" s="3">
-        <v>307256000</v>
+        <v>304547000</v>
       </c>
       <c r="F49" s="3">
-        <v>15804300</v>
+        <v>15665000</v>
       </c>
       <c r="G49" s="3">
-        <v>13611800</v>
+        <v>13491800</v>
       </c>
       <c r="H49" s="3">
-        <v>14091800</v>
+        <v>13967500</v>
       </c>
       <c r="I49" s="3">
-        <v>14614800</v>
+        <v>14485900</v>
       </c>
       <c r="J49" s="3">
-        <v>15273500</v>
+        <v>15138800</v>
       </c>
       <c r="K49" s="3">
         <v>15790900</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1897,7 +1862,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1927,37 +1892,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2669900</v>
+        <v>2646400</v>
       </c>
       <c r="E52" s="3">
-        <v>2668600</v>
+        <v>2645100</v>
       </c>
       <c r="F52" s="3">
-        <v>1939500</v>
+        <v>1922400</v>
       </c>
       <c r="G52" s="3">
-        <v>1331700</v>
+        <v>1320000</v>
       </c>
       <c r="H52" s="3">
-        <v>832100</v>
+        <v>824800</v>
       </c>
       <c r="I52" s="3">
-        <v>646900</v>
+        <v>641200</v>
       </c>
       <c r="J52" s="3">
-        <v>833500</v>
+        <v>826100</v>
       </c>
       <c r="K52" s="3">
         <v>825600</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1987,37 +1952,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>190875000</v>
+        <v>189192000</v>
       </c>
       <c r="E54" s="3">
-        <v>183978000</v>
+        <v>182356000</v>
       </c>
       <c r="F54" s="3">
-        <v>51876300</v>
+        <v>51418900</v>
       </c>
       <c r="G54" s="3">
-        <v>41105300</v>
+        <v>40742900</v>
       </c>
       <c r="H54" s="3">
-        <v>34129900</v>
+        <v>33829000</v>
       </c>
       <c r="I54" s="3">
-        <v>35061200</v>
+        <v>34752000</v>
       </c>
       <c r="J54" s="3">
-        <v>35642900</v>
+        <v>35328600</v>
       </c>
       <c r="K54" s="3">
         <v>35710000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2031,7 +1996,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2045,187 +2010,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13866100</v>
+        <v>13743900</v>
       </c>
       <c r="E57" s="3">
-        <v>11618800</v>
+        <v>11516400</v>
       </c>
       <c r="F57" s="3">
-        <v>9567100</v>
+        <v>9482800</v>
       </c>
       <c r="G57" s="3">
-        <v>7743700</v>
+        <v>7675400</v>
       </c>
       <c r="H57" s="3">
-        <v>7205000</v>
+        <v>7141500</v>
       </c>
       <c r="I57" s="3">
-        <v>7488000</v>
+        <v>7422000</v>
       </c>
       <c r="J57" s="3">
-        <v>7600200</v>
+        <v>7533200</v>
       </c>
       <c r="K57" s="3">
         <v>6813100</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4897700</v>
+        <v>4854500</v>
       </c>
       <c r="E58" s="3">
-        <v>13566100</v>
+        <v>13446500</v>
       </c>
       <c r="F58" s="3">
-        <v>3922100</v>
+        <v>3887500</v>
       </c>
       <c r="G58" s="3">
-        <v>2863000</v>
+        <v>2837700</v>
       </c>
       <c r="H58" s="3">
-        <v>3233400</v>
+        <v>3204900</v>
       </c>
       <c r="I58" s="3">
-        <v>2582500</v>
+        <v>2559800</v>
       </c>
       <c r="J58" s="3">
-        <v>2133900</v>
+        <v>2115000</v>
       </c>
       <c r="K58" s="3">
         <v>2325500</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2534300</v>
+        <v>2511900</v>
       </c>
       <c r="E59" s="3">
-        <v>2762500</v>
+        <v>2738200</v>
       </c>
       <c r="F59" s="3">
-        <v>1974700</v>
+        <v>1957300</v>
       </c>
       <c r="G59" s="3">
-        <v>1140000</v>
+        <v>1129900</v>
       </c>
       <c r="H59" s="3">
-        <v>999100</v>
+        <v>990300</v>
       </c>
       <c r="I59" s="3">
-        <v>932600</v>
+        <v>924400</v>
       </c>
       <c r="J59" s="3">
-        <v>885600</v>
+        <v>877800</v>
       </c>
       <c r="K59" s="3">
         <v>1194300</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21298100</v>
+        <v>21110300</v>
       </c>
       <c r="E60" s="3">
-        <v>20353800</v>
+        <v>20174300</v>
       </c>
       <c r="F60" s="3">
-        <v>15463900</v>
+        <v>15327600</v>
       </c>
       <c r="G60" s="3">
-        <v>11746600</v>
+        <v>11643000</v>
       </c>
       <c r="H60" s="3">
-        <v>11437500</v>
+        <v>11336700</v>
       </c>
       <c r="I60" s="3">
-        <v>11003200</v>
+        <v>10906100</v>
       </c>
       <c r="J60" s="3">
-        <v>10619700</v>
+        <v>10526100</v>
       </c>
       <c r="K60" s="3">
         <v>10332900</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56455800</v>
+        <v>55958000</v>
       </c>
       <c r="E61" s="3">
-        <v>57424900</v>
+        <v>56918500</v>
       </c>
       <c r="F61" s="3">
-        <v>21505500</v>
+        <v>21315900</v>
       </c>
       <c r="G61" s="3">
-        <v>19311600</v>
+        <v>19141300</v>
       </c>
       <c r="H61" s="3">
-        <v>12754800</v>
+        <v>12642400</v>
       </c>
       <c r="I61" s="3">
-        <v>12672700</v>
+        <v>12560900</v>
       </c>
       <c r="J61" s="3">
-        <v>11847000</v>
+        <v>11742600</v>
       </c>
       <c r="K61" s="3">
         <v>11205900</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27444000</v>
+        <v>27202000</v>
       </c>
       <c r="E62" s="3">
-        <v>27123100</v>
+        <v>26884000</v>
       </c>
       <c r="F62" s="3">
-        <v>3942900</v>
+        <v>3908200</v>
       </c>
       <c r="G62" s="3">
-        <v>3483800</v>
+        <v>3453100</v>
       </c>
       <c r="H62" s="3">
-        <v>2354300</v>
+        <v>2333500</v>
       </c>
       <c r="I62" s="3">
-        <v>2339900</v>
+        <v>2319300</v>
       </c>
       <c r="J62" s="3">
-        <v>3029900</v>
+        <v>3003200</v>
       </c>
       <c r="K62" s="3">
         <v>3012800</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2255,7 +2220,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2285,7 +2250,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2315,37 +2280,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>105516000</v>
+        <v>104586000</v>
       </c>
       <c r="E66" s="3">
-        <v>104730000</v>
+        <v>103806000</v>
       </c>
       <c r="F66" s="3">
-        <v>41204500</v>
+        <v>40841200</v>
       </c>
       <c r="G66" s="3">
-        <v>34722000</v>
+        <v>34415900</v>
       </c>
       <c r="H66" s="3">
-        <v>26943100</v>
+        <v>26705600</v>
       </c>
       <c r="I66" s="3">
-        <v>26408400</v>
+        <v>26175500</v>
       </c>
       <c r="J66" s="3">
-        <v>25897100</v>
+        <v>25668700</v>
       </c>
       <c r="K66" s="3">
         <v>24955800</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2359,7 +2324,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2389,7 +2354,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2419,7 +2384,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2449,7 +2414,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2479,37 +2444,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>92466400</v>
+        <v>91651200</v>
       </c>
       <c r="E72" s="3">
-        <v>134054000</v>
+        <v>132872000</v>
       </c>
       <c r="F72" s="3">
-        <v>9903600</v>
+        <v>9816300</v>
       </c>
       <c r="G72" s="3">
-        <v>5620300</v>
+        <v>5570700</v>
       </c>
       <c r="H72" s="3">
-        <v>6428900</v>
+        <v>6372300</v>
       </c>
       <c r="I72" s="3">
-        <v>7900200</v>
+        <v>7830600</v>
       </c>
       <c r="J72" s="3">
-        <v>12680500</v>
+        <v>12568700</v>
       </c>
       <c r="K72" s="3">
         <v>12030200</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2539,7 +2504,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2569,7 +2534,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2599,37 +2564,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>85359300</v>
+        <v>84606700</v>
       </c>
       <c r="E76" s="3">
-        <v>79248600</v>
+        <v>78549800</v>
       </c>
       <c r="F76" s="3">
-        <v>10671900</v>
+        <v>10577800</v>
       </c>
       <c r="G76" s="3">
-        <v>6383300</v>
+        <v>6327000</v>
       </c>
       <c r="H76" s="3">
-        <v>7186700</v>
+        <v>7123400</v>
       </c>
       <c r="I76" s="3">
-        <v>8652800</v>
+        <v>8576500</v>
       </c>
       <c r="J76" s="3">
-        <v>9745800</v>
+        <v>9659900</v>
       </c>
       <c r="K76" s="3">
         <v>10754200</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2659,12 +2624,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2694,37 +2659,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7867600</v>
+        <v>7798200</v>
       </c>
       <c r="E81" s="3">
-        <v>48892100</v>
+        <v>48461000</v>
       </c>
       <c r="F81" s="3">
-        <v>6062400</v>
+        <v>6009000</v>
       </c>
       <c r="G81" s="3">
-        <v>5595500</v>
+        <v>5546200</v>
       </c>
       <c r="H81" s="3">
-        <v>4062900</v>
+        <v>4027100</v>
       </c>
       <c r="I81" s="3">
-        <v>5092000</v>
+        <v>5047100</v>
       </c>
       <c r="J81" s="3">
-        <v>4952500</v>
+        <v>4908800</v>
       </c>
       <c r="K81" s="3">
         <v>4075500</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2738,37 +2703,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1291300</v>
+        <v>1279900</v>
       </c>
       <c r="E83" s="3">
-        <v>1065600</v>
+        <v>1056200</v>
       </c>
       <c r="F83" s="3">
-        <v>791700</v>
+        <v>784700</v>
       </c>
       <c r="G83" s="3">
-        <v>558200</v>
+        <v>553300</v>
       </c>
       <c r="H83" s="3">
-        <v>682200</v>
+        <v>676100</v>
       </c>
       <c r="I83" s="3">
-        <v>622200</v>
+        <v>616700</v>
       </c>
       <c r="J83" s="3">
-        <v>619500</v>
+        <v>614100</v>
       </c>
       <c r="K83" s="3">
         <v>1075800</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2798,7 +2763,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2828,7 +2793,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2858,7 +2823,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2888,7 +2853,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2918,37 +2883,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13427900</v>
+        <v>13309500</v>
       </c>
       <c r="E89" s="3">
-        <v>6974100</v>
+        <v>6912700</v>
       </c>
       <c r="F89" s="3">
-        <v>6012900</v>
+        <v>5959900</v>
       </c>
       <c r="G89" s="3">
-        <v>6156300</v>
+        <v>6102100</v>
       </c>
       <c r="H89" s="3">
-        <v>4846800</v>
+        <v>4804100</v>
       </c>
       <c r="I89" s="3">
-        <v>5785900</v>
+        <v>5734900</v>
       </c>
       <c r="J89" s="3">
-        <v>5774200</v>
+        <v>5723300</v>
       </c>
       <c r="K89" s="3">
         <v>6012500</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2962,37 +2927,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-988700</v>
+        <v>-979900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1031700</v>
+        <v>-1022600</v>
       </c>
       <c r="F91" s="3">
-        <v>-764300</v>
+        <v>-757600</v>
       </c>
       <c r="G91" s="3">
-        <v>-630000</v>
+        <v>-624400</v>
       </c>
       <c r="H91" s="3">
-        <v>-690000</v>
+        <v>-683900</v>
       </c>
       <c r="I91" s="3">
-        <v>-748700</v>
+        <v>-742100</v>
       </c>
       <c r="J91" s="3">
-        <v>-866100</v>
+        <v>-858400</v>
       </c>
       <c r="K91" s="3">
         <v>-671600</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3022,7 +2987,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3052,37 +3017,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1331700</v>
+        <v>-1320000</v>
       </c>
       <c r="E94" s="3">
-        <v>-24187100</v>
+        <v>-23973900</v>
       </c>
       <c r="F94" s="3">
-        <v>-834800</v>
+        <v>-827400</v>
       </c>
       <c r="G94" s="3">
-        <v>-5205500</v>
+        <v>-5159600</v>
       </c>
       <c r="H94" s="3">
-        <v>-613000</v>
+        <v>-607600</v>
       </c>
       <c r="I94" s="3">
-        <v>-436900</v>
+        <v>-433100</v>
       </c>
       <c r="J94" s="3">
-        <v>-521700</v>
+        <v>-517100</v>
       </c>
       <c r="K94" s="3">
         <v>-937600</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3096,37 +3061,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5669800</v>
+        <v>-5619800</v>
       </c>
       <c r="E96" s="3">
-        <v>-4519400</v>
+        <v>-4479600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3795500</v>
+        <v>-3762100</v>
       </c>
       <c r="G96" s="3">
-        <v>-3612900</v>
+        <v>-3581100</v>
       </c>
       <c r="H96" s="3">
-        <v>-3537300</v>
+        <v>-3506100</v>
       </c>
       <c r="I96" s="3">
-        <v>-3405600</v>
+        <v>-3375500</v>
       </c>
       <c r="J96" s="3">
-        <v>-3310300</v>
+        <v>-3281200</v>
       </c>
       <c r="K96" s="3">
         <v>-3105000</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3156,7 +3121,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3186,7 +3151,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3216,90 +3181,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12560500</v>
+        <v>-12449800</v>
       </c>
       <c r="E100" s="3">
-        <v>19250300</v>
+        <v>19080600</v>
       </c>
       <c r="F100" s="3">
-        <v>-5515900</v>
+        <v>-5467300</v>
       </c>
       <c r="G100" s="3">
-        <v>-285600</v>
+        <v>-283100</v>
       </c>
       <c r="H100" s="3">
-        <v>-4522000</v>
+        <v>-4482200</v>
       </c>
       <c r="I100" s="3">
-        <v>-5174200</v>
+        <v>-5128600</v>
       </c>
       <c r="J100" s="3">
-        <v>-5157200</v>
+        <v>-5111800</v>
       </c>
       <c r="K100" s="3">
         <v>-5329000</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-180000</v>
+        <v>-178400</v>
       </c>
       <c r="E101" s="3">
-        <v>-510000</v>
+        <v>-505500</v>
       </c>
       <c r="F101" s="3">
-        <v>234800</v>
+        <v>232700</v>
       </c>
       <c r="G101" s="3">
-        <v>-354800</v>
+        <v>-351600</v>
       </c>
       <c r="H101" s="3">
-        <v>-82200</v>
+        <v>-81400</v>
       </c>
       <c r="I101" s="3">
-        <v>-256900</v>
+        <v>-254700</v>
       </c>
       <c r="J101" s="3">
-        <v>-229600</v>
+        <v>-227500</v>
       </c>
       <c r="K101" s="3">
         <v>-63200</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-644300</v>
+        <v>-638600</v>
       </c>
       <c r="E102" s="3">
-        <v>1527300</v>
+        <v>1513900</v>
       </c>
       <c r="F102" s="3">
-        <v>-103000</v>
+        <v>-102100</v>
       </c>
       <c r="G102" s="3">
-        <v>310400</v>
+        <v>307700</v>
       </c>
       <c r="H102" s="3">
-        <v>-370400</v>
+        <v>-367200</v>
       </c>
       <c r="I102" s="3">
-        <v>-82200</v>
+        <v>-81400</v>
       </c>
       <c r="J102" s="3">
-        <v>-134300</v>
+        <v>-133200</v>
       </c>
       <c r="K102" s="3">
         <v>-317300</v>
